--- a/1.xlsx
+++ b/1.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMatveev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMatveev\PycharmProjects\xltohtml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="847">
   <si>
     <t>{1}</t>
   </si>
@@ -2315,6 +2319,264 @@
   </si>
   <si>
     <t>Файл</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d10.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-panfilova-d1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-panfilova-d3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\ul-opanasenko-d-5-korp-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\ul-opanasenko-d-5-korp-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\ul-opanasenko-d-5-korp-3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-8.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-8-a.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-10.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-12.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-13.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-14.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-15.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16-k-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16-k-3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-18.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-18-k-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-19-k-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-19-k-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-25-k-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-25-k-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-27.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-29.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-5-k-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-5-k-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-7.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-9.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-13.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-15.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-17.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-19.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-23-k-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-25.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-27.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-29.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-31.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-33.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-35.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-37.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-211.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-50.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-52.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-54.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-60.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-64.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-68.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-70.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-74.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-76.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnyy-proezd-6.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnyy-proezd-8.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-rodionova-ul-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\leninskiy-prospekt-d-33-korp-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\leninskiy-prospekt-d-33-korp-3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\leninskiy-prospekt-d-35-korp-2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\leninskiy-prospekt-d-35-korp-3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-levoberezhnyy-ul-chaykovskogo-d-1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-levoberezhnyy-ul-chaykovskogo-d-5.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-ovrazhnaya-d-4.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-papanina-d-38-k1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-papanina-d-38-k2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-papanina-d-38-k4.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-papanina-d-38-k5.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina- d-6-k2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina- d9-k2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d3-k1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d3-k2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d5.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d6-k1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d-8.html</t>
+  </si>
+  <si>
+    <t>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d9-k1.html</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="vsk-servis/</t>
+  </si>
+  <si>
+    <t>"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>на лист1</t>
+  </si>
+  <si>
+    <t>на лист3</t>
+  </si>
+  <si>
+    <t>Вставляется вручную</t>
+  </si>
+  <si>
+    <t>Требует растягивания формулы</t>
   </si>
 </sst>
 </file>
@@ -2398,12 +2660,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -2630,7 +2904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2743,18 +3017,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2765,6 +3052,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FuzzyLookup_AddIn_Undo_Sheet"/>
+      <sheetName val="СРАВНЕНИЕ"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="ЛАСТ"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3064,17 +3369,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:CC501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="CB7" sqref="CB7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81">
@@ -30059,6 +30365,2433 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:DX80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="98.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="41"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="87" max="87" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:128">
+      <c r="A1" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>840</v>
+      </c>
+      <c r="C1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>846</v>
+      </c>
+      <c r="I1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!C1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-1</v>
+      </c>
+      <c r="J1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!D1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-13</v>
+      </c>
+      <c r="K1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!E1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-15</v>
+      </c>
+      <c r="L1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!F1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-17</v>
+      </c>
+      <c r="M1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!G1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-19</v>
+      </c>
+      <c r="N1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!H1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-211</v>
+      </c>
+      <c r="O1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!I1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-23-k-2</v>
+      </c>
+      <c r="P1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!J1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-25</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!K1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-27</v>
+      </c>
+      <c r="R1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!L1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-29</v>
+      </c>
+      <c r="S1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!M1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-3</v>
+      </c>
+      <c r="T1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!N1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-31</v>
+      </c>
+      <c r="U1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!O1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-33</v>
+      </c>
+      <c r="V1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!P1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-35</v>
+      </c>
+      <c r="W1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!Q1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-37</v>
+      </c>
+      <c r="X1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!R1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-5-k-1</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!S1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-5-k-2</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!T1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-7</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!U1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Melnikova-pr-kt-9</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!V1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-50</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!W1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-52</v>
+      </c>
+      <c r="AD1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!X1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-54</v>
+      </c>
+      <c r="AE1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!Y1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-60</v>
+      </c>
+      <c r="AF1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!Z1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-64</v>
+      </c>
+      <c r="AG1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AA1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-68</v>
+      </c>
+      <c r="AH1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AB1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-70</v>
+      </c>
+      <c r="AI1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AC1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-74</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AD1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnaya-ul-76</v>
+      </c>
+      <c r="AK1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AE1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnyy-proezd-6</v>
+      </c>
+      <c r="AL1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AF1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Molodezhnyy-proezd-8</v>
+      </c>
+      <c r="AM1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AG1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Rodionova-ul-1</v>
+      </c>
+      <c r="AN1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AH1,".",""),",",""),"/",""),"html","")</f>
+        <v>Leninskiy-prospekt-d-35-korp-2</v>
+      </c>
+      <c r="AO1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AI1,".",""),",",""),"/",""),"html","")</f>
+        <v>Leninskiy-prospekt-d-33-korp-3</v>
+      </c>
+      <c r="AP1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AJ1,".",""),",",""),"/",""),"html","")</f>
+        <v>ul-Opanasenko-d-5-korp-1</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AK1,".",""),",",""),"/",""),"html","")</f>
+        <v>ul-Opanasenko-d-5-korp-2</v>
+      </c>
+      <c r="AR1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AL1,".",""),",",""),"/",""),"html","")</f>
+        <v>ul-Opanasenko-d-5-korp-3</v>
+      </c>
+      <c r="AS1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AM1,".",""),",",""),"/",""),"html","")</f>
+        <v>Leninskiy-prospekt-d-35-korp-3</v>
+      </c>
+      <c r="AT1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AN1,".",""),",",""),"/",""),"html","")</f>
+        <v>mkr-Levoberezhnyy-ul-Chaykovskogo-d-5</v>
+      </c>
+      <c r="AU1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AO1,".",""),",",""),"/",""),"html","")</f>
+        <v>Leninskiy-prospekt-d-33-korp-1</v>
+      </c>
+      <c r="AV1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AP1,".",""),",",""),"/",""),"html","")</f>
+        <v>mkr-Levoberezhnyy-ul-Chaykovskogo-d-1</v>
+      </c>
+      <c r="AW1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AQ1,".",""),",",""),"/",""),"html","")</f>
+        <v>mkr-Skhodnya-ul-Ovrazhnaya-d-4</v>
+      </c>
+      <c r="AX1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AR1,".",""),",",""),"/",""),"html","")</f>
+        <v>mkr-Skhodnya-ul-Papanina-d-38-k1</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AS1,".",""),",",""),"/",""),"html","")</f>
+        <v>mkr-Skhodnya-ul-Papanina-d-38-k2</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AT1,".",""),",",""),"/",""),"html","")</f>
+        <v>mkr-Skhodnya-ul-Papanina-d-38-k4</v>
+      </c>
+      <c r="BA1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AU1,".",""),",",""),"/",""),"html","")</f>
+        <v>mkr-Skhodnya-ul-Papanina-d-38-k5</v>
+      </c>
+      <c r="BB1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AV1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-10</v>
+      </c>
+      <c r="BC1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AW1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-12</v>
+      </c>
+      <c r="BD1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AX1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-13</v>
+      </c>
+      <c r="BE1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AY1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-14</v>
+      </c>
+      <c r="BF1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!AZ1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-15</v>
+      </c>
+      <c r="BG1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BA1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-16</v>
+      </c>
+      <c r="BH1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BB1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-16-k-2</v>
+      </c>
+      <c r="BI1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BC1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-16-k-3</v>
+      </c>
+      <c r="BJ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BD1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-17-k-1</v>
+      </c>
+      <c r="BK1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BE1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-17-k-2</v>
+      </c>
+      <c r="BL1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BF1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-17-k-3</v>
+      </c>
+      <c r="BM1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BG1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-18-k-2</v>
+      </c>
+      <c r="BN1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BH1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-19-k-1</v>
+      </c>
+      <c r="BO1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BI1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-19-k-2</v>
+      </c>
+      <c r="BP1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BJ1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-25-k-1</v>
+      </c>
+      <c r="BQ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BK1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-25-k-2</v>
+      </c>
+      <c r="BR1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BL1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-27</v>
+      </c>
+      <c r="BS1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BM1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-29</v>
+      </c>
+      <c r="BT1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BN1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-8</v>
+      </c>
+      <c r="BU1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BO1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-8-A</v>
+      </c>
+      <c r="BV1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BP1,".",""),",",""),"/",""),"html","")</f>
+        <v>Khimki-g-Levoberezhnyy-mkr-Sovkhoznaya-ul-18</v>
+      </c>
+      <c r="BW1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BQ1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina- d-6-k2</v>
+      </c>
+      <c r="BX1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BR1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina- d9-k2</v>
+      </c>
+      <c r="BY1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BS1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d-8</v>
+      </c>
+      <c r="BZ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BT1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d1</v>
+      </c>
+      <c r="CA1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BU1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d10</v>
+      </c>
+      <c r="CB1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BV1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d2</v>
+      </c>
+      <c r="CC1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BW1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d3-k1</v>
+      </c>
+      <c r="CD1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BX1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d3-k2</v>
+      </c>
+      <c r="CE1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BY1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d5</v>
+      </c>
+      <c r="CF1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!BZ1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d6-k1</v>
+      </c>
+      <c r="CG1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CA1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Gorshina-d9-k1</v>
+      </c>
+      <c r="CH1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CB1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Panfilova-d1</v>
+      </c>
+      <c r="CI1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CC1,".",""),",",""),"/",""),"html","")</f>
+        <v>MO-g-Khimki-ul-Panfilova-d3</v>
+      </c>
+      <c r="CJ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CD1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CK1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CE1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CL1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CF1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CM1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CG1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CN1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CH1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CO1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CI1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CP1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CJ1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CQ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CK1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CR1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CL1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CS1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CM1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CT1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CN1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CU1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CO1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CV1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CP1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CW1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CQ1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CX1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CR1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CY1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CS1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="CZ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CT1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DA1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CU1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DB1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CV1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DC1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CW1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DD1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CX1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DE1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CY1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DF1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!CZ1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DG1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DA1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DH1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DB1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DI1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DC1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DJ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DD1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DK1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DE1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DL1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DF1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DM1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DG1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DN1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DH1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DO1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DI1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DP1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DJ1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DQ1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DK1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DR1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DL1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DS1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DM1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DT1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DN1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DU1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DO1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DV1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DP1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DW1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DQ1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+      <c r="DX1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Лист1!DR1,".",""),",",""),"/",""),"html","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:128">
+      <c r="A2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A2,[1]!ЛАСТ(A2,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d10.html"&gt;МО, г. Химки, ул. Горшина д.10&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+      <c r="H2" t="s">
+        <v>844</v>
+      </c>
+      <c r="I2">
+        <f>MATCH("*"&amp;I1&amp;".html",$A:$A,0)</f>
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:BU2" si="0">MATCH("*"&amp;J1&amp;".html",$A:$A,0)</f>
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BF2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BG2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="BH2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="BI2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="BJ2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BK2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="BL2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="BM2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BN2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="BO2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="BP2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="BQ2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BR2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="BS2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="BT2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BU2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BV2">
+        <f t="shared" ref="BV2:CI2" si="1">MATCH("*"&amp;BV1&amp;".html",$A:$A,0)</f>
+        <v>21</v>
+      </c>
+      <c r="BW2">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="BX2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="BY2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="BZ2">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="CA2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CB2">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="CC2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="CD2">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="CE2">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="CF2">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="CG2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="CH2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="CI2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:128">
+      <c r="A3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A3,[1]!ЛАСТ(A3,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-panfilova-d1.html"&gt;МО, г. Химки, ул. Панфилова д.1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+      <c r="H3" t="s">
+        <v>843</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>17</v>
+      </c>
+      <c r="X3">
+        <v>18</v>
+      </c>
+      <c r="Y3">
+        <v>19</v>
+      </c>
+      <c r="Z3">
+        <v>20</v>
+      </c>
+      <c r="AA3">
+        <v>21</v>
+      </c>
+      <c r="AB3">
+        <v>22</v>
+      </c>
+      <c r="AC3">
+        <v>23</v>
+      </c>
+      <c r="AD3">
+        <v>24</v>
+      </c>
+      <c r="AE3">
+        <v>25</v>
+      </c>
+      <c r="AF3">
+        <v>26</v>
+      </c>
+      <c r="AG3">
+        <v>27</v>
+      </c>
+      <c r="AH3">
+        <v>28</v>
+      </c>
+      <c r="AI3">
+        <v>29</v>
+      </c>
+      <c r="AJ3">
+        <v>30</v>
+      </c>
+      <c r="AK3">
+        <v>31</v>
+      </c>
+      <c r="AL3">
+        <v>32</v>
+      </c>
+      <c r="AM3">
+        <v>33</v>
+      </c>
+      <c r="AN3">
+        <v>34</v>
+      </c>
+      <c r="AO3">
+        <v>35</v>
+      </c>
+      <c r="AP3">
+        <v>36</v>
+      </c>
+      <c r="AQ3">
+        <v>37</v>
+      </c>
+      <c r="AR3">
+        <v>38</v>
+      </c>
+      <c r="AS3">
+        <v>39</v>
+      </c>
+      <c r="AT3">
+        <v>40</v>
+      </c>
+      <c r="AU3">
+        <v>41</v>
+      </c>
+      <c r="AV3">
+        <v>42</v>
+      </c>
+      <c r="AW3">
+        <v>43</v>
+      </c>
+      <c r="AX3">
+        <v>44</v>
+      </c>
+      <c r="AY3">
+        <v>45</v>
+      </c>
+      <c r="AZ3">
+        <v>46</v>
+      </c>
+      <c r="BA3">
+        <v>47</v>
+      </c>
+      <c r="BB3">
+        <v>48</v>
+      </c>
+      <c r="BC3">
+        <v>49</v>
+      </c>
+      <c r="BD3">
+        <v>50</v>
+      </c>
+      <c r="BE3">
+        <v>51</v>
+      </c>
+      <c r="BF3">
+        <v>52</v>
+      </c>
+      <c r="BG3">
+        <v>53</v>
+      </c>
+      <c r="BH3">
+        <v>54</v>
+      </c>
+      <c r="BI3">
+        <v>55</v>
+      </c>
+      <c r="BJ3">
+        <v>56</v>
+      </c>
+      <c r="BK3">
+        <v>57</v>
+      </c>
+      <c r="BL3">
+        <v>58</v>
+      </c>
+      <c r="BM3">
+        <v>59</v>
+      </c>
+      <c r="BN3">
+        <v>60</v>
+      </c>
+      <c r="BO3">
+        <v>61</v>
+      </c>
+      <c r="BP3">
+        <v>62</v>
+      </c>
+      <c r="BQ3">
+        <v>63</v>
+      </c>
+      <c r="BR3">
+        <v>64</v>
+      </c>
+      <c r="BS3">
+        <v>65</v>
+      </c>
+      <c r="BT3">
+        <v>66</v>
+      </c>
+      <c r="BU3">
+        <v>67</v>
+      </c>
+      <c r="BV3">
+        <v>68</v>
+      </c>
+      <c r="BW3">
+        <v>69</v>
+      </c>
+      <c r="BX3">
+        <v>70</v>
+      </c>
+      <c r="BY3">
+        <v>71</v>
+      </c>
+      <c r="BZ3">
+        <v>72</v>
+      </c>
+      <c r="CA3">
+        <v>73</v>
+      </c>
+      <c r="CB3">
+        <v>74</v>
+      </c>
+      <c r="CC3">
+        <v>75</v>
+      </c>
+      <c r="CD3">
+        <v>76</v>
+      </c>
+      <c r="CE3">
+        <v>77</v>
+      </c>
+      <c r="CF3">
+        <v>78</v>
+      </c>
+      <c r="CG3">
+        <v>79</v>
+      </c>
+      <c r="CH3">
+        <v>80</v>
+      </c>
+      <c r="CI3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:128">
+      <c r="A4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B4" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A4,[1]!ЛАСТ(A4,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-panfilova-d3.html"&gt;МО, г. Химки, ул. Панфилова д.3&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f>INDEX($A:$A,I2)</f>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-1.html</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:BU4" si="2">INDEX($A:$A,J2)</f>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-13.html</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-15.html</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-17.html</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-19.html</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-211.html</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-23-k-2.html</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-25.html</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-27.html</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-29.html</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-3.html</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-31.html</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-33.html</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-35.html</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-37.html</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-5-k-1.html</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-5-k-2.html</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-7.html</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-melnikova-pr-kt-9.html</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-50.html</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-52.html</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-54.html</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-60.html</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-64.html</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-68.html</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-70.html</v>
+      </c>
+      <c r="AI4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-74.html</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnaya-ul-76.html</v>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnyy-proezd-6.html</v>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-molodezhnyy-proezd-8.html</v>
+      </c>
+      <c r="AM4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-rodionova-ul-1.html</v>
+      </c>
+      <c r="AN4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\leninskiy-prospekt-d-35-korp-2.html</v>
+      </c>
+      <c r="AO4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\leninskiy-prospekt-d-33-korp-3.html</v>
+      </c>
+      <c r="AP4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\ul-opanasenko-d-5-korp-1.html</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\ul-opanasenko-d-5-korp-2.html</v>
+      </c>
+      <c r="AR4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\ul-opanasenko-d-5-korp-3.html</v>
+      </c>
+      <c r="AS4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\leninskiy-prospekt-d-35-korp-3.html</v>
+      </c>
+      <c r="AT4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-levoberezhnyy-ul-chaykovskogo-d-5.html</v>
+      </c>
+      <c r="AU4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\leninskiy-prospekt-d-33-korp-1.html</v>
+      </c>
+      <c r="AV4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-levoberezhnyy-ul-chaykovskogo-d-1.html</v>
+      </c>
+      <c r="AW4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-ovrazhnaya-d-4.html</v>
+      </c>
+      <c r="AX4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-papanina-d-38-k1.html</v>
+      </c>
+      <c r="AY4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-papanina-d-38-k2.html</v>
+      </c>
+      <c r="AZ4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-papanina-d-38-k4.html</v>
+      </c>
+      <c r="BA4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mkr-skhodnya-ul-papanina-d-38-k5.html</v>
+      </c>
+      <c r="BB4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-10.html</v>
+      </c>
+      <c r="BC4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-12.html</v>
+      </c>
+      <c r="BD4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-13.html</v>
+      </c>
+      <c r="BE4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-14.html</v>
+      </c>
+      <c r="BF4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-15.html</v>
+      </c>
+      <c r="BG4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16.html</v>
+      </c>
+      <c r="BH4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16-k-2.html</v>
+      </c>
+      <c r="BI4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16-k-3.html</v>
+      </c>
+      <c r="BJ4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-1.html</v>
+      </c>
+      <c r="BK4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-2.html</v>
+      </c>
+      <c r="BL4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-3.html</v>
+      </c>
+      <c r="BM4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-18-k-2.html</v>
+      </c>
+      <c r="BN4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-19-k-1.html</v>
+      </c>
+      <c r="BO4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-19-k-2.html</v>
+      </c>
+      <c r="BP4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-25-k-1.html</v>
+      </c>
+      <c r="BQ4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-25-k-2.html</v>
+      </c>
+      <c r="BR4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-27.html</v>
+      </c>
+      <c r="BS4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-29.html</v>
+      </c>
+      <c r="BT4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-8.html</v>
+      </c>
+      <c r="BU4" t="str">
+        <f t="shared" si="2"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-8-a.html</v>
+      </c>
+      <c r="BV4" t="str">
+        <f t="shared" ref="BV4:CI4" si="3">INDEX($A:$A,BV2)</f>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-18.html</v>
+      </c>
+      <c r="BW4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina- d-6-k2.html</v>
+      </c>
+      <c r="BX4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina- d9-k2.html</v>
+      </c>
+      <c r="BY4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d-8.html</v>
+      </c>
+      <c r="BZ4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d1.html</v>
+      </c>
+      <c r="CA4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d10.html</v>
+      </c>
+      <c r="CB4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d2.html</v>
+      </c>
+      <c r="CC4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d3-k1.html</v>
+      </c>
+      <c r="CD4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d3-k2.html</v>
+      </c>
+      <c r="CE4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d5.html</v>
+      </c>
+      <c r="CF4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d6-k1.html</v>
+      </c>
+      <c r="CG4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-gorshina-d9-k1.html</v>
+      </c>
+      <c r="CH4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-panfilova-d1.html</v>
+      </c>
+      <c r="CI4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\IMatveev\PycharmProjects\xltohtml\mo-g-khimki-ul-panfilova-d3.html</v>
+      </c>
+    </row>
+    <row r="5" spans="1:128">
+      <c r="A5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A5,[1]!ЛАСТ(A5,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/ul-opanasenko-d-5-korp-1.html"&gt;ул. Опанасенко д. 5 корп. 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!I3)</f>
+        <v>Химки г, Мельникова пр-кт, 1</v>
+      </c>
+      <c r="J5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!J3)</f>
+        <v>Химки г, Мельникова пр-кт, 13</v>
+      </c>
+      <c r="K5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!K3)</f>
+        <v>Химки г, Мельникова пр-кт, 15</v>
+      </c>
+      <c r="L5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!L3)</f>
+        <v>Химки г, Мельникова пр-кт, 17</v>
+      </c>
+      <c r="M5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!M3)</f>
+        <v>Химки г, Мельникова пр-кт, 19</v>
+      </c>
+      <c r="N5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!N3)</f>
+        <v>Химки г, Мельникова пр-кт, 21/1</v>
+      </c>
+      <c r="O5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!O3)</f>
+        <v>Химки г, Мельникова пр-кт, 23 к. 2</v>
+      </c>
+      <c r="P5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!P3)</f>
+        <v>Химки г, Мельникова пр-кт, 25</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!Q3)</f>
+        <v>Химки г, Мельникова пр-кт, 27</v>
+      </c>
+      <c r="R5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!R3)</f>
+        <v>Химки г, Мельникова пр-кт, 29</v>
+      </c>
+      <c r="S5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!S3)</f>
+        <v>Химки г, Мельникова пр-кт, 3</v>
+      </c>
+      <c r="T5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!T3)</f>
+        <v>Химки г, Мельникова пр-кт, 31</v>
+      </c>
+      <c r="U5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!U3)</f>
+        <v>Химки г, Мельникова пр-кт, 33</v>
+      </c>
+      <c r="V5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!V3)</f>
+        <v>Химки г, Мельникова пр-кт, 35</v>
+      </c>
+      <c r="W5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!W3)</f>
+        <v>Химки г, Мельникова пр-кт, 37</v>
+      </c>
+      <c r="X5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!X3)</f>
+        <v>Химки г, Мельникова пр-кт, 5 к. 1</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!Y3)</f>
+        <v>Химки г, Мельникова пр-кт, 5 к. 2</v>
+      </c>
+      <c r="Z5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!Z3)</f>
+        <v>Химки г, Мельникова пр-кт, 7</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AA3)</f>
+        <v>Химки г, Мельникова пр-кт, 9</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AB3)</f>
+        <v>Химки г, Молодежная ул, 50</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AC3)</f>
+        <v>Химки г, Молодежная ул, 52</v>
+      </c>
+      <c r="AD5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AD3)</f>
+        <v>Химки г, Молодежная ул, 54</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AE3)</f>
+        <v>Химки г, Молодежная ул, 60</v>
+      </c>
+      <c r="AF5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AF3)</f>
+        <v>Химки г, Молодежная ул, 64</v>
+      </c>
+      <c r="AG5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AG3)</f>
+        <v>Химки г, Молодежная ул, 68</v>
+      </c>
+      <c r="AH5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AH3)</f>
+        <v>Химки г, Молодежная ул, 70</v>
+      </c>
+      <c r="AI5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AI3)</f>
+        <v>Химки г, Молодежная ул, 74</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AJ3)</f>
+        <v>Химки г, Молодежная ул, 76</v>
+      </c>
+      <c r="AK5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AK3)</f>
+        <v>Химки г, Молодежный проезд, 6</v>
+      </c>
+      <c r="AL5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AL3)</f>
+        <v>Химки г, Молодежный проезд, 8</v>
+      </c>
+      <c r="AM5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AM3)</f>
+        <v>Химки г, Родионова ул, 1</v>
+      </c>
+      <c r="AN5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AN3)</f>
+        <v>Ленинский проспект д. 35 корп. 2</v>
+      </c>
+      <c r="AO5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AO3)</f>
+        <v>Ленинский проспект д. 33 корп. 3</v>
+      </c>
+      <c r="AP5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AP3)</f>
+        <v>ул. Опанасенко д. 5 корп. 1</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AQ3)</f>
+        <v>ул. Опанасенко д. 5 корп. 2</v>
+      </c>
+      <c r="AR5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AR3)</f>
+        <v>ул. Опанасенко д. 5 корп. 3</v>
+      </c>
+      <c r="AS5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AS3)</f>
+        <v>Ленинский проспект д. 35 корп. 3</v>
+      </c>
+      <c r="AT5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AT3)</f>
+        <v>мкр. Левобережный, ул. Чайковского д. 5</v>
+      </c>
+      <c r="AU5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AU3)</f>
+        <v>Ленинский проспект д. 33 корп. 1</v>
+      </c>
+      <c r="AV5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AV3)</f>
+        <v>мкр. Левобережный, ул. Чайковского д. 1</v>
+      </c>
+      <c r="AW5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AW3)</f>
+        <v>мкр. Сходня, ул. Овражная д. 4</v>
+      </c>
+      <c r="AX5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AX3)</f>
+        <v>мкр. Сходня, ул. Папанина д. 38 к.1</v>
+      </c>
+      <c r="AY5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AY3)</f>
+        <v>мкр. Сходня, ул. Папанина д. 38 к.2</v>
+      </c>
+      <c r="AZ5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!AZ3)</f>
+        <v>мкр. Сходня, ул. Папанина д. 38 к.4</v>
+      </c>
+      <c r="BA5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BA3)</f>
+        <v>мкр. Сходня, ул. Папанина д. 38 к.5</v>
+      </c>
+      <c r="BB5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BB3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 10</v>
+      </c>
+      <c r="BC5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BC3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 12</v>
+      </c>
+      <c r="BD5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BD3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 13</v>
+      </c>
+      <c r="BE5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BE3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 14</v>
+      </c>
+      <c r="BF5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BF3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 15</v>
+      </c>
+      <c r="BG5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BG3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 16</v>
+      </c>
+      <c r="BH5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BH3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 16 к. 2</v>
+      </c>
+      <c r="BI5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BI3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 16 к. 3</v>
+      </c>
+      <c r="BJ5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BJ3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 17 к. 1</v>
+      </c>
+      <c r="BK5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BK3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 17 к. 2</v>
+      </c>
+      <c r="BL5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BL3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 17 к. 3</v>
+      </c>
+      <c r="BM5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BM3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 18 к. 2</v>
+      </c>
+      <c r="BN5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BN3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 19 к. 1</v>
+      </c>
+      <c r="BO5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BO3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 19 к. 2</v>
+      </c>
+      <c r="BP5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BP3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 25 к. 1</v>
+      </c>
+      <c r="BQ5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BQ3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 25 к. 2</v>
+      </c>
+      <c r="BR5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BR3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 27</v>
+      </c>
+      <c r="BS5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BS3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 29</v>
+      </c>
+      <c r="BT5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BT3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 8</v>
+      </c>
+      <c r="BU5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BU3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 8 А</v>
+      </c>
+      <c r="BV5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BV3)</f>
+        <v>Химки г, Левобережный мкр, Совхозная ул, 18</v>
+      </c>
+      <c r="BW5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BW3)</f>
+        <v>МО, г. Химки, ул. Горшина  д. 6 к.2</v>
+      </c>
+      <c r="BX5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BX3)</f>
+        <v>МО, г. Химки, ул. Горшина  д.9 к.2</v>
+      </c>
+      <c r="BY5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BY3)</f>
+        <v>МО, г. Химки, ул. Горшина д. 8</v>
+      </c>
+      <c r="BZ5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!BZ3)</f>
+        <v>МО, г. Химки, ул. Горшина д.1</v>
+      </c>
+      <c r="CA5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CA3)</f>
+        <v>МО, г. Химки, ул. Горшина д.10</v>
+      </c>
+      <c r="CB5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CB3)</f>
+        <v>МО, г. Химки, ул. Горшина д.2</v>
+      </c>
+      <c r="CC5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CC3)</f>
+        <v>МО, г. Химки, ул. Горшина д.3 к.1</v>
+      </c>
+      <c r="CD5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CD3)</f>
+        <v>МО, г. Химки, ул. Горшина д.3 к.2</v>
+      </c>
+      <c r="CE5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CE3)</f>
+        <v>МО, г. Химки, ул. Горшина д.5</v>
+      </c>
+      <c r="CF5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CF3)</f>
+        <v>МО, г. Химки, ул. Горшина д.6 к.1</v>
+      </c>
+      <c r="CG5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CG3)</f>
+        <v>МО, г. Химки, ул. Горшина д.9 к.1</v>
+      </c>
+      <c r="CH5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CH3)</f>
+        <v>МО, г. Химки, ул. Панфилова д.1</v>
+      </c>
+      <c r="CI5" t="str">
+        <f>INDEX(Лист1!10:10,1,Лист3!CI3)</f>
+        <v>МО, г. Химки, ул. Панфилова д.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:128">
+      <c r="A6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B6" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A6,[1]!ЛАСТ(A6,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/ul-opanasenko-d-5-korp-2.html"&gt;ул. Опанасенко д. 5 корп. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:128">
+      <c r="A7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B7" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A7,[1]!ЛАСТ(A7,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/ul-opanasenko-d-5-korp-3.html"&gt;ул. Опанасенко д. 5 корп. 3&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:128">
+      <c r="A8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B8" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A8,[1]!ЛАСТ(A8,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-8.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 8&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:128">
+      <c r="A9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B9" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A9,[1]!ЛАСТ(A9,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-8-a.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 8 А&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:128">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A10,[1]!ЛАСТ(A10,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-10.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 10&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:128">
+      <c r="A11" t="s">
+        <v>770</v>
+      </c>
+      <c r="B11" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A11,[1]!ЛАСТ(A11,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-12.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 12&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:128">
+      <c r="A12" t="s">
+        <v>771</v>
+      </c>
+      <c r="B12" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A12,[1]!ЛАСТ(A12,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-13.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 13&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:128">
+      <c r="A13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B13" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A13,[1]!ЛАСТ(A13,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-14.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 14&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:128">
+      <c r="A14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B14" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A14,[1]!ЛАСТ(A14,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-15.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 15&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:128">
+      <c r="A15" t="s">
+        <v>774</v>
+      </c>
+      <c r="B15" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A15,[1]!ЛАСТ(A15,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 16&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:128">
+      <c r="A16" t="s">
+        <v>775</v>
+      </c>
+      <c r="B16" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A16,[1]!ЛАСТ(A16,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16-k-2.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 16 к. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>776</v>
+      </c>
+      <c r="B17" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A17,[1]!ЛАСТ(A17,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-16-k-3.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 16 к. 3&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>777</v>
+      </c>
+      <c r="B18" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A18,[1]!ЛАСТ(A18,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-1.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 17 к. 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>778</v>
+      </c>
+      <c r="B19" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A19,[1]!ЛАСТ(A19,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-2.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 17 к. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>779</v>
+      </c>
+      <c r="B20" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A20,[1]!ЛАСТ(A20,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-17-k-3.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 17 к. 3&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>780</v>
+      </c>
+      <c r="B21" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A21,[1]!ЛАСТ(A21,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-18.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 18&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>781</v>
+      </c>
+      <c r="B22" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A22,[1]!ЛАСТ(A22,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-18-k-2.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 18 к. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>782</v>
+      </c>
+      <c r="B23" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A23,[1]!ЛАСТ(A23,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-19-k-1.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 19 к. 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>783</v>
+      </c>
+      <c r="B24" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A24,[1]!ЛАСТ(A24,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-19-k-2.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 19 к. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>784</v>
+      </c>
+      <c r="B25" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A25,[1]!ЛАСТ(A25,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-25-k-1.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 25 к. 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>785</v>
+      </c>
+      <c r="B26" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A26,[1]!ЛАСТ(A26,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-25-k-2.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 25 к. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>786</v>
+      </c>
+      <c r="B27" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A27,[1]!ЛАСТ(A27,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-27.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 27&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>787</v>
+      </c>
+      <c r="B28" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A28,[1]!ЛАСТ(A28,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-levoberezhnyy-mkr-sovkhoznaya-ul-29.html"&gt;Химки г, Левобережный мкр, Совхозная ул, 29&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>788</v>
+      </c>
+      <c r="B29" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A29,[1]!ЛАСТ(A29,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-1.html"&gt;Химки г, Мельникова пр-кт, 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>789</v>
+      </c>
+      <c r="B30" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A30,[1]!ЛАСТ(A30,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-3.html"&gt;Химки г, Мельникова пр-кт, 3&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>790</v>
+      </c>
+      <c r="B31" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A31,[1]!ЛАСТ(A31,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-5-k-1.html"&gt;Химки г, Мельникова пр-кт, 5 к. 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>791</v>
+      </c>
+      <c r="B32" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A32,[1]!ЛАСТ(A32,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-5-k-2.html"&gt;Химки г, Мельникова пр-кт, 5 к. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>792</v>
+      </c>
+      <c r="B33" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A33,[1]!ЛАСТ(A33,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-7.html"&gt;Химки г, Мельникова пр-кт, 7&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>793</v>
+      </c>
+      <c r="B34" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A34,[1]!ЛАСТ(A34,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-9.html"&gt;Химки г, Мельникова пр-кт, 9&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>794</v>
+      </c>
+      <c r="B35" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A35,[1]!ЛАСТ(A35,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-13.html"&gt;Химки г, Мельникова пр-кт, 13&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>795</v>
+      </c>
+      <c r="B36" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A36,[1]!ЛАСТ(A36,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-15.html"&gt;Химки г, Мельникова пр-кт, 15&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>796</v>
+      </c>
+      <c r="B37" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A37,[1]!ЛАСТ(A37,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-17.html"&gt;Химки г, Мельникова пр-кт, 17&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>797</v>
+      </c>
+      <c r="B38" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A38,[1]!ЛАСТ(A38,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-19.html"&gt;Химки г, Мельникова пр-кт, 19&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>798</v>
+      </c>
+      <c r="B39" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A39,[1]!ЛАСТ(A39,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-23-k-2.html"&gt;Химки г, Мельникова пр-кт, 23 к. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>799</v>
+      </c>
+      <c r="B40" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A40,[1]!ЛАСТ(A40,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-25.html"&gt;Химки г, Мельникова пр-кт, 25&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>800</v>
+      </c>
+      <c r="B41" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A41,[1]!ЛАСТ(A41,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-27.html"&gt;Химки г, Мельникова пр-кт, 27&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>801</v>
+      </c>
+      <c r="B42" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A42,[1]!ЛАСТ(A42,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-29.html"&gt;Химки г, Мельникова пр-кт, 29&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>802</v>
+      </c>
+      <c r="B43" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A43,[1]!ЛАСТ(A43,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-31.html"&gt;Химки г, Мельникова пр-кт, 31&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>803</v>
+      </c>
+      <c r="B44" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A44,[1]!ЛАСТ(A44,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-33.html"&gt;Химки г, Мельникова пр-кт, 33&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>804</v>
+      </c>
+      <c r="B45" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A45,[1]!ЛАСТ(A45,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-35.html"&gt;Химки г, Мельникова пр-кт, 35&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>805</v>
+      </c>
+      <c r="B46" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A46,[1]!ЛАСТ(A46,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-37.html"&gt;Химки г, Мельникова пр-кт, 37&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>806</v>
+      </c>
+      <c r="B47" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A47,[1]!ЛАСТ(A47,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-melnikova-pr-kt-211.html"&gt;Химки г, Мельникова пр-кт, 21/1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>807</v>
+      </c>
+      <c r="B48" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A48,[1]!ЛАСТ(A48,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-50.html"&gt;Химки г, Молодежная ул, 50&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>808</v>
+      </c>
+      <c r="B49" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A49,[1]!ЛАСТ(A49,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-52.html"&gt;Химки г, Молодежная ул, 52&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>809</v>
+      </c>
+      <c r="B50" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A50,[1]!ЛАСТ(A50,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-54.html"&gt;Химки г, Молодежная ул, 54&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>810</v>
+      </c>
+      <c r="B51" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A51,[1]!ЛАСТ(A51,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-60.html"&gt;Химки г, Молодежная ул, 60&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>811</v>
+      </c>
+      <c r="B52" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A52,[1]!ЛАСТ(A52,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-64.html"&gt;Химки г, Молодежная ул, 64&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>812</v>
+      </c>
+      <c r="B53" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A53,[1]!ЛАСТ(A53,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-68.html"&gt;Химки г, Молодежная ул, 68&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>813</v>
+      </c>
+      <c r="B54" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A54,[1]!ЛАСТ(A54,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-70.html"&gt;Химки г, Молодежная ул, 70&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>814</v>
+      </c>
+      <c r="B55" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A55,[1]!ЛАСТ(A55,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-74.html"&gt;Химки г, Молодежная ул, 74&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>815</v>
+      </c>
+      <c r="B56" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A56,[1]!ЛАСТ(A56,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnaya-ul-76.html"&gt;Химки г, Молодежная ул, 76&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>816</v>
+      </c>
+      <c r="B57" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A57,[1]!ЛАСТ(A57,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnyy-proezd-6.html"&gt;Химки г, Молодежный проезд, 6&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>817</v>
+      </c>
+      <c r="B58" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A58,[1]!ЛАСТ(A58,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-molodezhnyy-proezd-8.html"&gt;Химки г, Молодежный проезд, 8&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>818</v>
+      </c>
+      <c r="B59" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A59,[1]!ЛАСТ(A59,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/khimki-g-rodionova-ul-1.html"&gt;Химки г, Родионова ул, 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>819</v>
+      </c>
+      <c r="B60" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A60,[1]!ЛАСТ(A60,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/leninskiy-prospekt-d-33-korp-1.html"&gt;Ленинский проспект д. 33 корп. 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>820</v>
+      </c>
+      <c r="B61" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A61,[1]!ЛАСТ(A61,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/leninskiy-prospekt-d-33-korp-3.html"&gt;Ленинский проспект д. 33 корп. 3&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>821</v>
+      </c>
+      <c r="B62" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A62,[1]!ЛАСТ(A62,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/leninskiy-prospekt-d-35-korp-2.html"&gt;Ленинский проспект д. 35 корп. 2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>822</v>
+      </c>
+      <c r="B63" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A63,[1]!ЛАСТ(A63,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/leninskiy-prospekt-d-35-korp-3.html"&gt;Ленинский проспект д. 35 корп. 3&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>823</v>
+      </c>
+      <c r="B64" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A64,[1]!ЛАСТ(A64,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mkr-levoberezhnyy-ul-chaykovskogo-d-1.html"&gt;мкр. Левобережный, ул. Чайковского д. 1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>824</v>
+      </c>
+      <c r="B65" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A65,[1]!ЛАСТ(A65,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mkr-levoberezhnyy-ul-chaykovskogo-d-5.html"&gt;мкр. Левобережный, ул. Чайковского д. 5&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>825</v>
+      </c>
+      <c r="B66" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A66,[1]!ЛАСТ(A66,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mkr-skhodnya-ul-ovrazhnaya-d-4.html"&gt;мкр. Сходня, ул. Овражная д. 4&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>826</v>
+      </c>
+      <c r="B67" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A67,[1]!ЛАСТ(A67,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mkr-skhodnya-ul-papanina-d-38-k1.html"&gt;мкр. Сходня, ул. Папанина д. 38 к.1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>827</v>
+      </c>
+      <c r="B68" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A68,[1]!ЛАСТ(A68,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mkr-skhodnya-ul-papanina-d-38-k2.html"&gt;мкр. Сходня, ул. Папанина д. 38 к.2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>828</v>
+      </c>
+      <c r="B69" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A69,[1]!ЛАСТ(A69,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mkr-skhodnya-ul-papanina-d-38-k4.html"&gt;мкр. Сходня, ул. Папанина д. 38 к.4&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>829</v>
+      </c>
+      <c r="B70" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A70,[1]!ЛАСТ(A70,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mkr-skhodnya-ul-papanina-d-38-k5.html"&gt;мкр. Сходня, ул. Папанина д. 38 к.5&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>830</v>
+      </c>
+      <c r="B71" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A71,[1]!ЛАСТ(A71,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina- d-6-k2.html"&gt;МО, г. Химки, ул. Горшина  д. 6 к.2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>831</v>
+      </c>
+      <c r="B72" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A72,[1]!ЛАСТ(A72,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina- d9-k2.html"&gt;МО, г. Химки, ул. Горшина  д.9 к.2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>832</v>
+      </c>
+      <c r="B73" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A73,[1]!ЛАСТ(A73,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d1.html"&gt;МО, г. Химки, ул. Горшина д.1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>833</v>
+      </c>
+      <c r="B74" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A74,[1]!ЛАСТ(A74,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d2.html"&gt;МО, г. Химки, ул. Горшина д.2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>834</v>
+      </c>
+      <c r="B75" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A75,[1]!ЛАСТ(A75,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d3-k1.html"&gt;МО, г. Химки, ул. Горшина д.3 к.1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>835</v>
+      </c>
+      <c r="B76" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A76,[1]!ЛАСТ(A76,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d3-k2.html"&gt;МО, г. Химки, ул. Горшина д.3 к.2&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>836</v>
+      </c>
+      <c r="B77" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A77,[1]!ЛАСТ(A77,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d5.html"&gt;МО, г. Химки, ул. Горшина д.5&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>837</v>
+      </c>
+      <c r="B78" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A78,[1]!ЛАСТ(A78,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d6-k1.html"&gt;МО, г. Химки, ул. Горшина д.6 к.1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>838</v>
+      </c>
+      <c r="B79" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A79,[1]!ЛАСТ(A79,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d-8.html"&gt;МО, г. Химки, ул. Горшина д. 8&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>839</v>
+      </c>
+      <c r="B80" s="41" t="str">
+        <f>CONCATENATE($B$1,MID(A80,[1]!ЛАСТ(A80,"\")+1,999),$C$1,INDEX($C$5:$DZ$5,MATCH(ROW(),$C$2:$DZ$2,0)),$D$1)</f>
+        <v>&lt;li&gt;&lt;a href="vsk-servis/mo-g-khimki-ul-gorshina-d9-k1.html"&gt;МО, г. Химки, ул. Горшина д.9 к.1&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:CI2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:CC81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30093,8 +32826,8 @@
       <c r="W1" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="38"/>
       <c r="Z1" s="27"/>
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
@@ -30113,25 +32846,25 @@
       <c r="AO1" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="38"/>
       <c r="AR1" s="30"/>
       <c r="AS1" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="AT1" s="39"/>
+      <c r="AT1" s="38"/>
       <c r="AU1" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="AV1" s="39"/>
+      <c r="AV1" s="38"/>
       <c r="AW1" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="AX1" s="39"/>
+      <c r="AX1" s="38"/>
       <c r="AY1" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="AZ1" s="39"/>
+      <c r="AZ1" s="38"/>
       <c r="BA1" s="29" t="s">
         <v>507</v>
       </c>
@@ -30144,19 +32877,19 @@
       <c r="BD1" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="BE1" s="39"/>
+      <c r="BE1" s="38"/>
       <c r="BF1" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="BG1" s="39"/>
+      <c r="BG1" s="38"/>
       <c r="BH1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="BI1" s="39"/>
+      <c r="BI1" s="38"/>
       <c r="BJ1" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="BK1" s="39"/>
+      <c r="BK1" s="38"/>
       <c r="BL1" s="27"/>
       <c r="BM1" s="27"/>
       <c r="BN1" s="27"/>
@@ -44720,16 +47453,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BS4" r:id="rId1"/>
